--- a/Weekly_Checklist.xlsx
+++ b/Weekly_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oms\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AEDMIN\Desktop\senior-dev-roadmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CFF7E0-4C8F-4651-AEF6-D2C408C89BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F826B18-089C-4F5C-9124-1BA493FA3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Week</t>
   </si>
@@ -99,13 +97,16 @@
   </si>
   <si>
     <t>Final blog + GitHub repo polish</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +119,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,16 +164,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,6 +190,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,7 +484,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,8 +519,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
